--- a/data/5_results/no_prompt/result_no_prompt_3.xlsx
+++ b/data/5_results/no_prompt/result_no_prompt_3.xlsx
@@ -507,22 +507,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,470</t>
+          <t>0,756</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,517</t>
+          <t>0,886</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,492</t>
+          <t>0,816</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,443</t>
+          <t>0,994</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -553,22 +553,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,478</t>
+          <t>0,800</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,516</t>
+          <t>0,914</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,496</t>
+          <t>0,853</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,457</t>
+          <t>0,889</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -599,22 +599,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,455</t>
+          <t>0,698</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,526</t>
+          <t>0,882</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,488</t>
+          <t>0,779</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,968</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -645,22 +645,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,455</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,882</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,476</t>
+          <t>0,811</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,873</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -691,22 +691,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,341</t>
+          <t>0,417</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,306</t>
+          <t>0,366</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,323</t>
+          <t>0,390</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,214</t>
+          <t>0,992</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -737,22 +737,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,392</t>
+          <t>0,556</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,370</t>
+          <t>0,513</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,381</t>
+          <t>0,533</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -783,22 +783,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0,143</t>
+          <t>0,267</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,308</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,114</t>
+          <t>0,947</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -829,22 +829,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,234</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,714</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,242</t>
+          <t>0,652</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0,214</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -875,22 +875,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,159</t>
+          <t>0,385</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,185</t>
+          <t>0,588</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,171</t>
+          <t>0,465</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,143</t>
+          <t>0,871</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -921,22 +921,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,086</t>
+          <t>0,556</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,076</t>
+          <t>0,294</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,081</t>
+          <t>0,385</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,071</t>
+          <t>0,989</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -967,22 +967,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,103</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,090</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,096</t>
+          <t>0,444</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,086</t>
+          <t>0,972</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1013,22 +1013,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,086</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,077</t>
+          <t>0,294</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,081</t>
+          <t>0,370</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,071</t>
+          <t>0,995</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1059,22 +1059,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,103</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,091</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,097</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,086</t>
+          <t>0,973</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1105,22 +1105,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,183</t>
+          <t>0,579</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,177</t>
+          <t>0,524</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,180</t>
+          <t>0,550</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0,157</t>
+          <t>0,773</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1151,22 +1151,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,129</t>
+          <t>0,308</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,140</t>
+          <t>0,381</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,114</t>
+          <t>0,922</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1197,22 +1197,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,194</t>
+          <t>0,722</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,812</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,197</t>
+          <t>0,765</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0,186</t>
+          <t>0,973</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1243,22 +1243,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,082</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0,077</t>
+          <t>0,357</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0,079</t>
+          <t>0,417</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,071</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1289,22 +1289,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,478</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,190</t>
+          <t>0,733</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,177</t>
+          <t>0,579</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,157</t>
+          <t>0,843</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,136</t>
+          <t>0,391</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,161</t>
+          <t>0,692</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,148</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,129</t>
+          <t>0,843</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1381,22 +1381,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,097</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,088</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,092</t>
+          <t>0,545</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,086</t>
+          <t>0,848</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1427,22 +1427,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,031</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,030</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,031</t>
+          <t>0,308</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1473,22 +1473,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,030</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0,030</t>
+          <t>0,444</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,685</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1519,22 +1519,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,031</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0,030</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0,031</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,762</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1565,22 +1565,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,030</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0,030</t>
+          <t>0,444</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,685</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1611,22 +1611,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,115</t>
+          <t>0,467</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,113</t>
+          <t>0,438</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,114</t>
+          <t>0,452</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0,100</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1657,22 +1657,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,032</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0,030</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0,031</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1703,22 +1703,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,043</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,055</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0,048</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0,043</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1749,22 +1749,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,016</t>
+          <t>0,083</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,017</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0,016</t>
+          <t>0,100</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,884</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1887,22 +1887,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,133</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0,031</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,133</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1933,22 +1933,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1979,22 +1979,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0,030</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0,030</t>
+          <t>0,444</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2025,22 +2025,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,015</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0,015</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0,015</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2071,22 +2071,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,046</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,375</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0,043</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2117,22 +2117,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,016</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0,015</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2163,22 +2163,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0,015</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0,015</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0,015</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2209,22 +2209,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2255,22 +2255,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2301,22 +2301,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,043</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0,043</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0,043</t>
+          <t>0,857</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0,043</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2347,22 +2347,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0,015</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0,015</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2393,22 +2393,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,800</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,863</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2577,22 +2577,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0,015</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0,015</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2623,22 +2623,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0,015</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0,015</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,131</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2957,22 +2957,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3003,22 +3003,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,452</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4354,22 +4354,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,087</t>
+          <t>0,347</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,076</t>
+          <t>0,678</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,221</t>
+          <t>0,509</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,188</t>
+          <t>0,908</t>
         </is>
       </c>
     </row>

--- a/data/5_results/no_prompt/result_no_prompt_3.xlsx
+++ b/data/5_results/no_prompt/result_no_prompt_3.xlsx
@@ -507,42 +507,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,756</t>
+          <t>0,699</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,886</t>
+          <t>0,879</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,816</t>
+          <t>0,779</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,994</t>
+          <t>0,990</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>35,000</t>
+          <t>58,000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -553,42 +553,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,800</t>
+          <t>0,740</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,914</t>
+          <t>0,931</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,853</t>
+          <t>0,824</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,889</t>
+          <t>0,921</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>35,000</t>
+          <t>58,000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -599,42 +599,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,698</t>
+          <t>0,726</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,882</t>
+          <t>0,869</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,779</t>
+          <t>0,791</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,968</t>
+          <t>0,982</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>34,000</t>
+          <t>61,000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -645,42 +645,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>0,740</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,882</t>
+          <t>0,900</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,811</t>
+          <t>0,812</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,873</t>
+          <t>0,967</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>34,000</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -691,42 +691,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,417</t>
+          <t>0,412</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,366</t>
+          <t>0,418</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,390</t>
+          <t>0,415</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,992</t>
+          <t>0,995</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>41,000</t>
+          <t>67,000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I6" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J6" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -737,17 +737,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,556</t>
+          <t>0,493</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,513</t>
+          <t>0,485</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,533</t>
+          <t>0,489</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>39,000</t>
+          <t>68,000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I7" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J7" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -783,42 +783,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0,267</t>
+          <t>0,067</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,364</t>
+          <t>0,105</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0,308</t>
+          <t>0,082</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,947</t>
+          <t>0,982</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>22,000</t>
+          <t>38,000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="J8" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -829,17 +829,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,455</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,714</t>
+          <t>0,513</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,652</t>
+          <t>0,482</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -849,22 +849,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>21,000</t>
+          <t>39,000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0,30</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -875,27 +875,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,385</t>
+          <t>0,327</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,588</t>
+          <t>0,640</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,465</t>
+          <t>0,432</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,871</t>
+          <t>0,920</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>17,000</t>
+          <t>25,000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -904,13 +904,13 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I10" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -921,42 +921,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,556</t>
+          <t>0,423</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,294</t>
+          <t>0,393</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,385</t>
+          <t>0,407</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,989</t>
+          <t>0,991</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>17,000</t>
+          <t>28,000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -967,42 +967,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,462</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,444</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,972</t>
+          <t>0,976</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>18,000</t>
+          <t>30,000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J12" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,385</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,294</t>
+          <t>0,357</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1028,27 +1028,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,995</t>
+          <t>0,990</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>17,000</t>
+          <t>28,000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J13" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1059,42 +1059,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,419</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,456</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,973</t>
+          <t>0,990</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>18,000</t>
+          <t>31,000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,30</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1105,27 +1105,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,579</t>
+          <t>0,452</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,524</t>
+          <t>0,613</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,550</t>
+          <t>0,521</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0,773</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>21,000</t>
+          <t>31,000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1151,42 +1151,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,308</t>
+          <t>0,306</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,682</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,381</t>
+          <t>0,423</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,922</t>
+          <t>0,997</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>16,000</t>
+          <t>22,000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I16" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1197,42 +1197,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,722</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,812</t>
+          <t>0,700</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,765</t>
+          <t>0,583</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0,973</t>
+          <t>0,801</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>16,000</t>
+          <t>30,000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1243,42 +1243,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,238</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0,357</t>
+          <t>0,263</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0,417</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,892</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>14,000</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J18" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -1289,42 +1289,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,478</t>
+          <t>0,375</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,733</t>
+          <t>0,720</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,579</t>
+          <t>0,493</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,843</t>
+          <t>0,872</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>15,000</t>
+          <t>25,000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I19" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1335,42 +1335,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,391</t>
+          <t>0,396</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,692</t>
+          <t>0,792</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,528</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,843</t>
+          <t>0,919</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>13,000</t>
+          <t>24,000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I20" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1381,42 +1381,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>0,273</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,300</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,545</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,848</t>
+          <t>0,898</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>14,000</t>
+          <t>20,000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1427,17 +1427,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,133</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,308</t>
+          <t>0,148</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1447,22 +1447,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>12,000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1473,42 +1473,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0,444</t>
+          <t>0,308</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,685</t>
+          <t>0,886</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>12,000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1519,42 +1519,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,100</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,100</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,100</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,762</t>
+          <t>0,863</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,10</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,375</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,545</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1580,27 +1580,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,685</t>
+          <t>0,906</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,10</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1611,42 +1611,42 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,467</t>
+          <t>0,276</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,438</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,452</t>
+          <t>0,314</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,981</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>16,000</t>
+          <t>22,000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I26" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J26" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -1657,17 +1657,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,10</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1703,42 +1703,42 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,148</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>0,444</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0,222</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0,286</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0,167</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1749,42 +1749,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,083</t>
+          <t>0,077</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,125</t>
+          <t>0,100</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0,100</t>
+          <t>0,087</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,963</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,10</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1795,27 +1795,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,300</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,931</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -1856,12 +1856,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0,884</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1873,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1887,42 +1887,42 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,133</t>
+          <t>0,136</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>0,429</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0,207</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0,235</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0,133</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1933,42 +1933,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,417</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>0,714</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0,526</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0,667</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0,500</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" t="n">
         <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1979,17 +1979,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,083</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0,444</t>
+          <t>0,118</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1999,22 +1999,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>12,000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,182</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0,375</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,211</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2091,22 +2091,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -2117,19 +2117,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>0,167</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>0,143</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0,222</t>
-        </is>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>1,000</t>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2163,17 +2163,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,100</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2183,22 +2183,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,10</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -2209,42 +2209,42 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2255,42 +2255,42 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>0,400</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0,333</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0,667</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0,500</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2301,42 +2301,42 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0,857</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H41" t="n">
         <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2367,22 +2367,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -2393,42 +2393,42 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>0,375</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0,400</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0,800</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0,667</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -2459,12 +2459,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -2500,17 +2500,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0,863</t>
+          <t>0,530</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -2520,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -2546,27 +2546,27 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2577,17 +2577,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2609,10 +2609,10 @@
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -2623,17 +2623,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2655,62 +2655,56 @@
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TADs</t>
+          <t>tads</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -2741,12 +2735,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2756,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -2782,12 +2776,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0,131</t>
+          <t>0,142</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2802,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -2833,12 +2827,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -2848,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2879,120 +2873,120 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Unilateral Posterior Crossbite</t>
+          <t>unilateral posterior crossbite</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>extractions</t>
+          <t>Extractions</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -3003,42 +2997,42 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>0,333</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>0,500</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>0,500</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0,500</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0,452</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H56" t="n">
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3074,7 +3068,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -3095,94 +3089,88 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Relapse</t>
+          <t>relapse</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3213,22 +3201,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
         <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3254,27 +3242,27 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,135</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -3310,7 +3298,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -3331,42 +3319,42 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3476,47 +3464,53 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>anterior bite turbos</t>
+          <t>Anterior Bite Turbos</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -3604,14 +3598,14 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
         <v>2</v>
@@ -3620,53 +3614,47 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Maxillary Expander</t>
+          <t>maxillary expander</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3984,53 +3972,47 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Lower Arch Accentuated Curve of Spee</t>
+          <t>lower arch accentuated curve of spee</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -4140,53 +4122,47 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Mandibular Advancement Appliance</t>
+          <t>mandibular advancement appliance</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -4354,22 +4330,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,347</t>
+          <t>0,274</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,678</t>
+          <t>0,695</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,509</t>
+          <t>0,456</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,908</t>
+          <t>0,913</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4413,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
@@ -4447,7 +4423,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">

--- a/data/5_results/no_prompt/result_no_prompt_3.xlsx
+++ b/data/5_results/no_prompt/result_no_prompt_3.xlsx
@@ -507,42 +507,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,699</t>
+          <t>0,649</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,879</t>
+          <t>0,762</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,779</t>
+          <t>0,701</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,990</t>
+          <t>0,983</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>58,000</t>
+          <t>80,000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I2" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -553,42 +553,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,740</t>
+          <t>0,739</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,931</t>
+          <t>0,872</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,824</t>
+          <t>0,800</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,921</t>
+          <t>0,994</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>58,000</t>
+          <t>78,000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,60</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="I3" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -599,42 +599,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,726</t>
+          <t>0,728</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,869</t>
+          <t>0,848</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,791</t>
+          <t>0,784</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,982</t>
+          <t>0,985</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>61,000</t>
+          <t>79,000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,60</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="I4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -645,42 +645,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,740</t>
+          <t>0,756</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,900</t>
+          <t>0,872</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,812</t>
+          <t>0,810</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,967</t>
+          <t>0,990</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>78,000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,60</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="I5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -691,42 +691,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,412</t>
+          <t>0,284</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,418</t>
+          <t>0,263</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,415</t>
+          <t>0,273</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,995</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>67,000</t>
+          <t>80,000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I6" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J6" t="n">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -737,17 +737,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,493</t>
+          <t>0,329</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,485</t>
+          <t>0,308</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,489</t>
+          <t>0,318</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>68,000</t>
+          <t>78,000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,60</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I7" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="J7" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -783,42 +783,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0,067</t>
+          <t>0,063</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,105</t>
+          <t>0,103</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0,082</t>
+          <t>0,078</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,982</t>
+          <t>0,940</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>38,000</t>
+          <t>39,000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,30</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -829,17 +829,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,455</t>
+          <t>0,512</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,513</t>
+          <t>0,489</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,482</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -849,22 +849,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>39,000</t>
+          <t>45,000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -875,42 +875,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,327</t>
+          <t>0,257</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,640</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,432</t>
+          <t>0,340</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,920</t>
+          <t>0,950</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>25,000</t>
+          <t>36,000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I10" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="J10" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -921,12 +921,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,423</t>
+          <t>0,387</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,393</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,991</t>
+          <t>0,989</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -946,17 +946,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -967,39 +967,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,462</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,357</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,345</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,976</t>
+          <t>0,990</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>30,000</t>
+          <t>28,000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J12" t="n">
         <v>18</v>
@@ -1013,42 +1013,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,385</t>
+          <t>0,355</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,357</t>
+          <t>0,367</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,370</t>
+          <t>0,361</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,990</t>
+          <t>0,982</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>28,000</t>
+          <t>30,000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1059,42 +1059,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,419</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,456</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,990</t>
+          <t>0,982</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>31,000</t>
+          <t>30,000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0,30</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1105,17 +1105,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,452</t>
+          <t>0,435</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,613</t>
+          <t>0,541</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,521</t>
+          <t>0,482</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>31,000</t>
+          <t>37,000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0,30</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J15" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -1151,42 +1151,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,306</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,682</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,423</t>
+          <t>0,381</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,997</t>
+          <t>0,865</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>22,000</t>
+          <t>35,000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H16" t="n">
+        <v>20</v>
+      </c>
+      <c r="I16" t="n">
+        <v>50</v>
+      </c>
+      <c r="J16" t="n">
         <v>15</v>
-      </c>
-      <c r="I16" t="n">
-        <v>34</v>
-      </c>
-      <c r="J16" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1197,42 +1197,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,186</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,700</t>
+          <t>0,381</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,583</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0,801</t>
+          <t>0,987</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>30,000</t>
+          <t>21,000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I17" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1243,42 +1243,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,238</t>
+          <t>0,346</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0,263</t>
+          <t>0,692</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,462</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,892</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>19,000</t>
+          <t>13,000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,10</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J18" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1289,42 +1289,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,375</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,720</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,493</t>
+          <t>0,308</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,872</t>
+          <t>0,830</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>25,000</t>
+          <t>24,000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I19" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,396</t>
+          <t>0,204</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,792</t>
+          <t>0,458</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,528</t>
+          <t>0,282</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,919</t>
+          <t>0,833</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1360,17 +1360,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -1381,22 +1381,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,273</t>
+          <t>0,269</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,300</t>
+          <t>0,350</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,304</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,898</t>
+          <t>0,913</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1406,17 +1406,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I21" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -1427,42 +1427,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,133</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,158</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,148</t>
+          <t>0,231</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,928</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>12,000</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -1473,42 +1473,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,385</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0,308</t>
+          <t>0,435</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,886</t>
+          <t>0,817</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>12,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1519,42 +1519,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,100</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0,100</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0,100</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,863</t>
+          <t>0,862</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>12,000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
       <c r="J24" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1570,27 +1570,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0,545</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0,444</t>
+          <t>0,462</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,906</t>
+          <t>0,801</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1600,7 +1600,7 @@
         <v>10</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1611,42 +1611,42 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,276</t>
+          <t>0,472</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,364</t>
+          <t>0,806</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,314</t>
+          <t>0,595</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0,981</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>22,000</t>
+          <t>31,000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I26" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J26" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1657,42 +1657,42 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,444</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1703,17 +1703,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,148</t>
+          <t>0,243</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,444</t>
+          <t>0,529</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1723,22 +1723,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>17,000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I28" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1749,42 +1749,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,077</t>
+          <t>0,091</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,100</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0,087</t>
+          <t>0,145</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0,963</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="J29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1795,42 +1795,42 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,238</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0,300</t>
+          <t>0,556</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0,931</t>
+          <t>0,803</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,136</t>
+          <t>0,132</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0,207</t>
+          <t>0,217</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1907,22 +1907,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H32" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>33</v>
+      </c>
+      <c r="J32" t="n">
         <v>3</v>
-      </c>
-      <c r="I32" t="n">
-        <v>19</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1933,17 +1933,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,417</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0,714</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0,526</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1953,19 +1953,19 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
         <v>2</v>
@@ -1979,42 +1979,42 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0,111</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>0,200</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0,083</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0,118</t>
-        </is>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,111</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>12,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0,125</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0,182</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0,211</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2091,22 +2091,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,125</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0,143</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -2163,17 +2163,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0,100</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2183,22 +2183,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -2209,42 +2209,42 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
+        <v>6</v>
+      </c>
+      <c r="J39" t="n">
         <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2275,22 +2275,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -2301,42 +2301,42 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>0,500</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0,667</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>0,500</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0,667</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0,500</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H41" t="n">
         <v>3</v>
       </c>
       <c r="I41" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" t="n">
         <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -2347,17 +2347,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,091</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0,364</t>
+          <t>0,154</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2367,22 +2367,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2393,17 +2393,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0,375</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,444</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H43" t="n">
+        <v>4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7</v>
+      </c>
+      <c r="J43" t="n">
         <v>3</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -2454,27 +2454,27 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -2500,73 +2500,79 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0,530</t>
+          <t>0,726</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>upper arch accentuated curve of spee</t>
+          <t>Upper Arch Accentuated Curve of Spee</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>10</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2577,17 +2583,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,545</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2597,22 +2603,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H47" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="n">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -2623,17 +2629,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,545</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2643,22 +2649,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H48" t="n">
+        <v>3</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" t="n">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -2689,12 +2695,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -2704,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
@@ -2735,12 +2741,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2750,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -2776,17 +2782,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0,142</t>
+          <t>0,193</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2796,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -2827,12 +2833,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -2842,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -2873,12 +2879,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2888,105 +2894,105 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>unilateral posterior crossbite</t>
+          <t>Unilateral Posterior Crossbite</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Extractions</t>
+          <t>extractions</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -2997,42 +3003,42 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,067</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,067</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>15,000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H56" t="n">
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -3063,12 +3069,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -3078,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -3094,22 +3100,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3124,53 +3130,59 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>relapse</t>
+          <t>Relapse</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -3196,17 +3208,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,760</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -3216,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -3242,73 +3254,79 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0,135</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>closed spring</t>
+          <t>Closed Spring</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -3324,27 +3342,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -3354,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -3516,53 +3534,47 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TADs.1</t>
+          <t>tads.1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -3593,22 +3605,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
+        <v>11</v>
+      </c>
+      <c r="J68" t="n">
         <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -3764,53 +3776,47 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Debonded Bracket/Band</t>
+          <t>debonded bracket/band</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -3972,47 +3978,53 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>lower arch accentuated curve of spee</t>
+          <t>Lower Arch Accentuated Curve of Spee</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -4122,47 +4134,53 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>mandibular advancement appliance</t>
+          <t>Mandibular Advancement Appliance</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -4330,22 +4348,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,274</t>
+          <t>0,262</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,695</t>
+          <t>0,702</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,456</t>
+          <t>0,419</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,913</t>
+          <t>0,881</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4431,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
@@ -4423,7 +4441,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">

--- a/data/5_results/no_prompt/result_no_prompt_3.xlsx
+++ b/data/5_results/no_prompt/result_no_prompt_3.xlsx
@@ -507,22 +507,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,649</t>
+          <t>0,692</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,762</t>
+          <t>0,900</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,701</t>
+          <t>0,783</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,983</t>
+          <t>0,958</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -553,22 +553,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,739</t>
+          <t>0,720</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,872</t>
+          <t>0,923</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,800</t>
+          <t>0,809</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,994</t>
+          <t>0,991</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I3" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -599,22 +599,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,728</t>
+          <t>0,735</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,848</t>
+          <t>0,949</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,784</t>
+          <t>0,829</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,985</t>
+          <t>0,966</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -645,22 +645,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,756</t>
+          <t>0,758</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,872</t>
+          <t>0,962</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,810</t>
+          <t>0,847</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,990</t>
+          <t>0,987</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -691,17 +691,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,284</t>
+          <t>0,472</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,263</t>
+          <t>0,525</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,273</t>
+          <t>0,497</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I6" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J6" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -737,17 +737,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,329</t>
+          <t>0,472</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,308</t>
+          <t>0,532</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,318</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>78,000</t>
+          <t>79,000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I7" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J7" t="n">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -783,22 +783,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0,063</t>
+          <t>0,087</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,103</t>
+          <t>0,154</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0,078</t>
+          <t>0,111</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,940</t>
+          <t>0,951</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J8" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -829,27 +829,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,512</t>
+          <t>0,623</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,489</t>
+          <t>0,864</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,724</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,942</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>45,000</t>
+          <t>44,000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -858,13 +858,13 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J9" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -875,22 +875,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,257</t>
+          <t>0,320</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,340</t>
+          <t>0,432</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,950</t>
+          <t>0,979</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -904,13 +904,13 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I10" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -921,17 +921,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,387</t>
+          <t>0,484</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,536</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,407</t>
+          <t>0,508</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I11" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -967,22 +967,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,414</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,357</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,345</t>
+          <t>0,421</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,990</t>
+          <t>0,974</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I12" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1013,22 +1013,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,355</t>
+          <t>0,433</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,367</t>
+          <t>0,433</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,361</t>
+          <t>0,433</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,982</t>
+          <t>0,993</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -1059,22 +1059,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,414</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,982</t>
+          <t>0,977</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1088,13 +1088,13 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I14" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1105,17 +1105,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,435</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,541</t>
+          <t>0,676</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,482</t>
+          <t>0,649</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I15" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1151,22 +1151,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,329</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>0,714</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,381</t>
+          <t>0,450</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,865</t>
+          <t>0,893</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1180,13 +1180,13 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I16" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1197,42 +1197,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,186</t>
+          <t>0,216</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,381</t>
+          <t>0,550</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,310</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0,987</t>
+          <t>0,983</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>21,000</t>
+          <t>20,000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I17" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,346</t>
+          <t>0,409</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0,462</t>
+          <t>0,514</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,644</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1275,7 +1275,7 @@
         <v>9</v>
       </c>
       <c r="I18" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J18" t="n">
         <v>4</v>
@@ -1289,22 +1289,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,261</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,308</t>
+          <t>0,387</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,830</t>
+          <t>0,785</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1318,13 +1318,13 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I19" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J19" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,204</t>
+          <t>0,257</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,458</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,282</t>
+          <t>0,383</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,833</t>
+          <t>0,585</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1364,13 +1364,13 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I20" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J20" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1381,22 +1381,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,269</t>
+          <t>0,391</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,350</t>
+          <t>0,450</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,304</t>
+          <t>0,419</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,913</t>
+          <t>0,678</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1410,13 +1410,13 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I21" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1427,22 +1427,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,800</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,158</t>
+          <t>0,421</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,231</t>
+          <t>0,552</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0,928</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1456,13 +1456,13 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,385</t>
+          <t>0,417</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1483,12 +1483,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0,435</t>
+          <t>0,455</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,817</t>
+          <t>0,820</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1505,7 +1505,7 @@
         <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
         <v>5</v>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,862</t>
+          <t>0,880</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
         <v>12</v>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,375</t>
+          <t>0,462</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0,462</t>
+          <t>0,522</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,801</t>
+          <t>0,820</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1597,7 +1597,7 @@
         <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
@@ -1611,17 +1611,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,472</t>
+          <t>0,488</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,806</t>
+          <t>0,645</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,595</t>
+          <t>0,556</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1640,13 +1640,13 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I26" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J26" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1657,22 +1657,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>0,500</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0,286</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0,364</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>1,000</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0,286</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0,444</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0,286</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1689,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
         <v>5</v>
@@ -1703,17 +1703,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,243</t>
+          <t>0,282</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,529</t>
+          <t>0,647</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,393</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I28" t="n">
         <v>28</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1749,17 +1749,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,091</t>
+          <t>0,146</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,364</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0,145</t>
+          <t>0,226</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>12,000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1795,22 +1795,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0,238</t>
+          <t>0,545</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0,556</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0,803</t>
+          <t>0,941</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1824,13 +1824,13 @@
         </is>
       </c>
       <c r="H30" t="n">
+        <v>6</v>
+      </c>
+      <c r="I30" t="n">
         <v>5</v>
       </c>
-      <c r="I30" t="n">
-        <v>16</v>
-      </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,737</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
         <v>7</v>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,132</t>
+          <t>0,139</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0,217</t>
+          <t>0,227</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1919,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J32" t="n">
         <v>3</v>
@@ -1933,17 +1933,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,300</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,375</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1962,13 +1962,13 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1979,24 +1979,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>0,667</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0,222</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0,333</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0,111</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0,200</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0,111</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>9,000</t>
@@ -2008,13 +2008,13 @@
         </is>
       </c>
       <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
       <c r="J34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
         <v>5</v>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,091</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2100,13 +2100,13 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J37" t="n">
         <v>3</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J38" t="n">
         <v>7</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2255,17 +2255,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,714</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,556</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0,364</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2275,22 +2275,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H40" t="n">
+        <v>5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" t="n">
         <v>4</v>
-      </c>
-      <c r="I40" t="n">
-        <v>8</v>
-      </c>
-      <c r="J40" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2333,7 +2333,7 @@
         <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2347,17 +2347,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0,091</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2376,13 +2376,13 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2393,17 +2393,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,364</t>
+          <t>0,714</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>0,714</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0,444</t>
+          <t>0,714</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
         <v>4</v>
@@ -2485,22 +2485,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0,726</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2514,65 +2514,59 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Upper Arch Accentuated Curve of Spee</t>
+          <t>upper arch accentuated curve of spee</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2583,7 +2577,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2593,7 +2587,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0,545</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2615,7 +2609,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2629,7 +2623,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2639,7 +2633,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0,545</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2661,7 +2655,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -2695,12 +2689,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>19,000</t>
+          <t>18,000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -2710,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -2721,22 +2715,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,830</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2750,13 +2744,13 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -2782,7 +2776,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0,193</t>
+          <t>0,712</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2799,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
         <v>9</v>
@@ -2957,22 +2951,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2986,13 +2980,13 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -3003,27 +2997,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0,067</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0,125</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0,067</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>15,000</t>
+          <t>14,000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3032,7 +3026,7 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -3049,22 +3043,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3078,13 +3072,13 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -3095,94 +3089,88 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Relapse</t>
+          <t>relapse</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3208,7 +3196,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0,760</t>
+          <t>0,795</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3225,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
         <v>5</v>
@@ -3254,7 +3242,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,893</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3337,42 +3325,42 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -3559,7 +3547,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3574,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -3617,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -3724,53 +3712,47 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Anterior Crossbite</t>
+          <t>anterior crossbite</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3801,12 +3783,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -3816,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -3978,53 +3960,47 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Lower Arch Accentuated Curve of Spee</t>
+          <t>lower arch accentuated curve of spee</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -4348,22 +4324,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,262</t>
+          <t>0,311</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,702</t>
+          <t>0,713</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,419</t>
+          <t>0,510</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,881</t>
+          <t>0,891</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4417,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
